--- a/data/final_df.xlsx
+++ b/data/final_df.xlsx
@@ -5,21 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://volcanicenter-my.sharepoint.com/personal/matanb_volcani_agri_gov_il/Documents/Water Quality Measurements nahalal/Water Quality datd  Nahalal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\GitHub\NahalalWaterQualityArticle\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="8835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22110" windowHeight="8835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="open dam date" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AE$530</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="690">
   <si>
     <t>id</t>
   </si>
@@ -2132,6 +2136,15 @@
   </si>
   <si>
     <t>מים עכורים בגוון צהבהב זורמים המוביל מכיוון מזרח. ריח של ביוב.</t>
+  </si>
+  <si>
+    <t>open_dem</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
 </sst>
 </file>
@@ -2166,7 +2179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2189,16 +2202,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2503,15 +2530,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE530"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AF530"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A380" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
+    <col min="31" max="31" width="97.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2605,8 +2638,11 @@
       <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF1" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2656,7 +2692,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2706,7 +2742,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2717,7 +2753,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2767,7 +2803,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2817,7 +2853,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2867,7 +2903,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2917,7 +2953,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2967,7 +3003,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3017,7 +3053,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3066,8 +3102,11 @@
       <c r="AE11" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3117,7 +3156,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3167,7 +3206,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3217,7 +3256,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>21</v>
       </c>
@@ -3264,7 +3303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>22</v>
       </c>
@@ -3311,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -3400,7 +3439,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -3489,7 +3528,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3578,7 +3617,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -3667,7 +3706,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -3756,7 +3795,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
@@ -3845,7 +3884,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>7</v>
       </c>
@@ -3934,7 +3973,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>8</v>
       </c>
@@ -4023,7 +4062,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>9</v>
       </c>
@@ -4112,7 +4151,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>10</v>
       </c>
@@ -4200,8 +4239,11 @@
       <c r="AE26" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF26" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>11</v>
       </c>
@@ -4290,7 +4332,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>12</v>
       </c>
@@ -4379,7 +4421,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>13</v>
       </c>
@@ -4468,7 +4510,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -4521,7 +4563,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -4574,7 +4616,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4588,7 +4630,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>4</v>
       </c>
@@ -4641,7 +4683,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5</v>
       </c>
@@ -4694,7 +4736,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>6</v>
       </c>
@@ -4747,7 +4789,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>7</v>
       </c>
@@ -4800,7 +4842,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>8</v>
       </c>
@@ -4853,7 +4895,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>9</v>
       </c>
@@ -4906,7 +4948,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>10</v>
       </c>
@@ -4958,8 +5000,11 @@
       <c r="AE39" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF39" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>11</v>
       </c>
@@ -5012,7 +5057,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>12</v>
       </c>
@@ -5065,7 +5110,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>13</v>
       </c>
@@ -5118,7 +5163,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>27</v>
       </c>
@@ -5171,7 +5216,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -5260,7 +5305,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -5349,7 +5394,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -5438,7 +5483,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4</v>
       </c>
@@ -5527,7 +5572,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -5616,7 +5661,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>6</v>
       </c>
@@ -5705,7 +5750,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7</v>
       </c>
@@ -5794,7 +5839,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>8</v>
       </c>
@@ -5883,7 +5928,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>9</v>
       </c>
@@ -5972,7 +6017,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>10</v>
       </c>
@@ -6060,8 +6105,11 @@
       <c r="AE53" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF53" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>11</v>
       </c>
@@ -6150,7 +6198,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>12</v>
       </c>
@@ -6239,7 +6287,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>13</v>
       </c>
@@ -6328,7 +6376,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -6381,7 +6429,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -6434,7 +6482,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -6448,7 +6496,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4</v>
       </c>
@@ -6501,7 +6549,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>5</v>
       </c>
@@ -6554,7 +6602,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6</v>
       </c>
@@ -6607,7 +6655,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>7</v>
       </c>
@@ -6660,7 +6708,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>8</v>
       </c>
@@ -6713,7 +6761,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>9</v>
       </c>
@@ -6766,7 +6814,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>10</v>
       </c>
@@ -6818,8 +6866,11 @@
       <c r="AE66" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF66" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>11</v>
       </c>
@@ -6872,7 +6923,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>12</v>
       </c>
@@ -6925,7 +6976,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>13</v>
       </c>
@@ -6978,7 +7029,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1</v>
       </c>
@@ -7067,7 +7118,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2</v>
       </c>
@@ -7078,7 +7129,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3</v>
       </c>
@@ -7167,7 +7218,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4</v>
       </c>
@@ -7256,7 +7307,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>5</v>
       </c>
@@ -7345,7 +7396,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>6</v>
       </c>
@@ -7434,7 +7485,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>7</v>
       </c>
@@ -7523,7 +7574,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>8</v>
       </c>
@@ -7612,7 +7663,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>9</v>
       </c>
@@ -7701,7 +7752,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>10</v>
       </c>
@@ -7753,8 +7804,11 @@
       <c r="AE79" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF79" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>11</v>
       </c>
@@ -7765,7 +7819,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>12</v>
       </c>
@@ -7776,7 +7830,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>13</v>
       </c>
@@ -7787,7 +7841,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -7840,7 +7894,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2</v>
       </c>
@@ -7893,7 +7947,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>3</v>
       </c>
@@ -7946,7 +8000,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4</v>
       </c>
@@ -7999,7 +8053,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>5</v>
       </c>
@@ -8052,7 +8106,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>6</v>
       </c>
@@ -8105,7 +8159,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>7</v>
       </c>
@@ -8158,7 +8212,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>8</v>
       </c>
@@ -8211,7 +8265,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>9</v>
       </c>
@@ -8264,7 +8318,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10</v>
       </c>
@@ -8316,8 +8370,11 @@
       <c r="AE92" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF92" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>11</v>
       </c>
@@ -8370,7 +8427,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>12</v>
       </c>
@@ -8381,7 +8438,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>13</v>
       </c>
@@ -8434,7 +8491,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1</v>
       </c>
@@ -8442,7 +8499,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2</v>
       </c>
@@ -8450,7 +8507,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>3</v>
       </c>
@@ -8458,7 +8515,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>4</v>
       </c>
@@ -8466,7 +8523,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>5</v>
       </c>
@@ -8474,7 +8531,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>6</v>
       </c>
@@ -8482,7 +8539,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>7</v>
       </c>
@@ -8490,7 +8547,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>8</v>
       </c>
@@ -8540,7 +8597,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>9</v>
       </c>
@@ -8556,7 +8613,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>11</v>
       </c>
@@ -8564,7 +8621,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>12</v>
       </c>
@@ -8572,7 +8629,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>13</v>
       </c>
@@ -8580,7 +8637,7 @@
         <v>43856</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1</v>
       </c>
@@ -8669,7 +8726,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2</v>
       </c>
@@ -8758,7 +8815,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>3</v>
       </c>
@@ -8847,7 +8904,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>4</v>
       </c>
@@ -8936,7 +8993,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>5</v>
       </c>
@@ -9025,7 +9082,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>6</v>
       </c>
@@ -9114,7 +9171,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>7</v>
       </c>
@@ -9203,7 +9260,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>8</v>
       </c>
@@ -9292,7 +9349,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>9</v>
       </c>
@@ -9381,7 +9438,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>10</v>
       </c>
@@ -9469,8 +9526,11 @@
       <c r="AE118" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF118" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="119" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>11</v>
       </c>
@@ -9559,7 +9619,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>12</v>
       </c>
@@ -9648,7 +9708,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>13</v>
       </c>
@@ -9734,7 +9794,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
@@ -9787,7 +9847,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2</v>
       </c>
@@ -9840,7 +9900,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3</v>
       </c>
@@ -9893,7 +9953,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>4</v>
       </c>
@@ -9946,7 +10006,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>5</v>
       </c>
@@ -9999,7 +10059,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>6</v>
       </c>
@@ -10052,7 +10112,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>7</v>
       </c>
@@ -10105,7 +10165,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>8</v>
       </c>
@@ -10158,7 +10218,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>9</v>
       </c>
@@ -10211,7 +10271,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>10</v>
       </c>
@@ -10263,8 +10323,11 @@
       <c r="AE131" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF131" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="132" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>11</v>
       </c>
@@ -10317,7 +10380,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>12</v>
       </c>
@@ -10370,7 +10433,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>13</v>
       </c>
@@ -10423,7 +10486,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1</v>
       </c>
@@ -10512,7 +10575,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2</v>
       </c>
@@ -10601,7 +10664,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>3</v>
       </c>
@@ -10690,7 +10753,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>4</v>
       </c>
@@ -10779,7 +10842,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>5</v>
       </c>
@@ -10868,7 +10931,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>6</v>
       </c>
@@ -10957,7 +11020,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>7</v>
       </c>
@@ -11046,7 +11109,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>8</v>
       </c>
@@ -11135,7 +11198,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>9</v>
       </c>
@@ -11224,7 +11287,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>10</v>
       </c>
@@ -11312,8 +11375,11 @@
       <c r="AE144" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF144" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="145" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>11</v>
       </c>
@@ -11402,7 +11468,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>12</v>
       </c>
@@ -11491,7 +11557,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>13</v>
       </c>
@@ -11580,7 +11646,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1</v>
       </c>
@@ -11633,7 +11699,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2</v>
       </c>
@@ -11686,7 +11752,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>3</v>
       </c>
@@ -11739,7 +11805,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>4</v>
       </c>
@@ -11792,7 +11858,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>5</v>
       </c>
@@ -11845,7 +11911,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>6</v>
       </c>
@@ -11898,7 +11964,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>7</v>
       </c>
@@ -11951,7 +12017,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>8</v>
       </c>
@@ -12004,7 +12070,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>9</v>
       </c>
@@ -12057,7 +12123,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>10</v>
       </c>
@@ -12109,8 +12175,11 @@
       <c r="AE157" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF157" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="158" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>11</v>
       </c>
@@ -12163,7 +12232,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>12</v>
       </c>
@@ -12216,7 +12285,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>13</v>
       </c>
@@ -12269,7 +12338,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1</v>
       </c>
@@ -12358,7 +12427,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>2</v>
       </c>
@@ -12447,7 +12516,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>3</v>
       </c>
@@ -12536,7 +12605,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>4</v>
       </c>
@@ -12625,7 +12694,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>5</v>
       </c>
@@ -12714,7 +12783,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>6</v>
       </c>
@@ -12803,7 +12872,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>7</v>
       </c>
@@ -12892,7 +12961,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>8</v>
       </c>
@@ -12981,7 +13050,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>9</v>
       </c>
@@ -13070,7 +13139,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>10</v>
       </c>
@@ -13158,8 +13227,11 @@
       <c r="AE170" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF170" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="171" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>11</v>
       </c>
@@ -13248,7 +13320,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>12</v>
       </c>
@@ -13337,7 +13409,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>13</v>
       </c>
@@ -13426,7 +13498,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1</v>
       </c>
@@ -13479,7 +13551,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>2</v>
       </c>
@@ -13532,7 +13604,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>3</v>
       </c>
@@ -13585,7 +13657,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>4</v>
       </c>
@@ -13638,7 +13710,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>5</v>
       </c>
@@ -13691,7 +13763,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>6</v>
       </c>
@@ -13744,7 +13816,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>7</v>
       </c>
@@ -13797,7 +13869,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>8</v>
       </c>
@@ -13850,7 +13922,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>9</v>
       </c>
@@ -13903,7 +13975,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>10</v>
       </c>
@@ -13955,8 +14027,11 @@
       <c r="AE183" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF183" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="184" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>11</v>
       </c>
@@ -14009,7 +14084,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>12</v>
       </c>
@@ -14062,7 +14137,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>13</v>
       </c>
@@ -14115,7 +14190,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1</v>
       </c>
@@ -14204,7 +14279,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>2</v>
       </c>
@@ -14293,7 +14368,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>3</v>
       </c>
@@ -14382,7 +14457,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>4</v>
       </c>
@@ -14471,7 +14546,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>5</v>
       </c>
@@ -14560,7 +14635,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>6</v>
       </c>
@@ -14649,7 +14724,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>7</v>
       </c>
@@ -14738,7 +14813,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>8</v>
       </c>
@@ -14827,7 +14902,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>9</v>
       </c>
@@ -14916,7 +14991,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>10</v>
       </c>
@@ -15004,8 +15079,11 @@
       <c r="AE196" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF196" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="197" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>11</v>
       </c>
@@ -15094,7 +15172,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>12</v>
       </c>
@@ -15183,7 +15261,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>13</v>
       </c>
@@ -15272,7 +15350,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1</v>
       </c>
@@ -15325,7 +15403,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2</v>
       </c>
@@ -15378,7 +15456,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>3</v>
       </c>
@@ -15431,7 +15509,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>4</v>
       </c>
@@ -15484,7 +15562,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>5</v>
       </c>
@@ -15537,7 +15615,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>6</v>
       </c>
@@ -15590,7 +15668,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>7</v>
       </c>
@@ -15643,7 +15721,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>8</v>
       </c>
@@ -15696,7 +15774,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>9</v>
       </c>
@@ -15749,7 +15827,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>10</v>
       </c>
@@ -15801,8 +15879,11 @@
       <c r="AE209" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF209" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="210" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>11</v>
       </c>
@@ -15855,7 +15936,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>12</v>
       </c>
@@ -15908,7 +15989,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>13</v>
       </c>
@@ -15961,7 +16042,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>101</v>
       </c>
@@ -16014,7 +16095,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>102</v>
       </c>
@@ -16067,7 +16148,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1</v>
       </c>
@@ -16156,7 +16237,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2</v>
       </c>
@@ -16245,7 +16326,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>3</v>
       </c>
@@ -16334,7 +16415,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>4</v>
       </c>
@@ -16423,7 +16504,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>5</v>
       </c>
@@ -16512,7 +16593,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>6</v>
       </c>
@@ -16601,7 +16682,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>7</v>
       </c>
@@ -16690,7 +16771,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>8</v>
       </c>
@@ -16779,7 +16860,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>9</v>
       </c>
@@ -16868,7 +16949,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>10</v>
       </c>
@@ -16956,8 +17037,11 @@
       <c r="AE224" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF224" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="225" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>11</v>
       </c>
@@ -17046,7 +17130,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>12</v>
       </c>
@@ -17135,7 +17219,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>13</v>
       </c>
@@ -17224,7 +17308,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>101</v>
       </c>
@@ -17313,7 +17397,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>102</v>
       </c>
@@ -17402,7 +17486,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1</v>
       </c>
@@ -17455,7 +17539,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2</v>
       </c>
@@ -17508,7 +17592,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>3</v>
       </c>
@@ -17561,7 +17645,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>4</v>
       </c>
@@ -17614,7 +17698,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>5</v>
       </c>
@@ -17667,7 +17751,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>6</v>
       </c>
@@ -17720,7 +17804,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>7</v>
       </c>
@@ -17773,7 +17857,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>8</v>
       </c>
@@ -17826,7 +17910,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>9</v>
       </c>
@@ -17879,7 +17963,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>10</v>
       </c>
@@ -17931,8 +18015,11 @@
       <c r="AE239" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF239" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="240" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>11</v>
       </c>
@@ -17985,7 +18072,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>12</v>
       </c>
@@ -18038,7 +18125,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>13</v>
       </c>
@@ -18091,7 +18178,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>101</v>
       </c>
@@ -18144,7 +18231,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>102</v>
       </c>
@@ -18197,7 +18284,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>1</v>
       </c>
@@ -18286,7 +18373,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>2</v>
       </c>
@@ -18375,7 +18462,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>3</v>
       </c>
@@ -18464,7 +18551,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>4</v>
       </c>
@@ -18553,7 +18640,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>5</v>
       </c>
@@ -18642,7 +18729,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>6</v>
       </c>
@@ -18731,7 +18818,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>7</v>
       </c>
@@ -18820,7 +18907,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>8</v>
       </c>
@@ -18909,7 +18996,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>9</v>
       </c>
@@ -18998,7 +19085,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="254" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>10</v>
       </c>
@@ -19086,8 +19173,11 @@
       <c r="AE254" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="255" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF254" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="255" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>11</v>
       </c>
@@ -19176,7 +19266,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="256" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>12</v>
       </c>
@@ -19265,7 +19355,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="257" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>13</v>
       </c>
@@ -19354,7 +19444,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="258" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>101</v>
       </c>
@@ -19443,7 +19533,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="259" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>102</v>
       </c>
@@ -19532,7 +19622,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="260" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1</v>
       </c>
@@ -19591,7 +19681,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="261" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2</v>
       </c>
@@ -19650,7 +19740,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="262" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>3</v>
       </c>
@@ -19709,7 +19799,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="263" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>4</v>
       </c>
@@ -19768,7 +19858,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="264" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>5</v>
       </c>
@@ -19827,7 +19917,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="265" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>6</v>
       </c>
@@ -19883,7 +19973,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="266" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>7</v>
       </c>
@@ -19942,7 +20032,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="267" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>8</v>
       </c>
@@ -20001,7 +20091,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="268" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>9</v>
       </c>
@@ -20060,7 +20150,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="269" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>10</v>
       </c>
@@ -20118,8 +20208,11 @@
       <c r="AE269" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="270" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF269" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="270" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>11</v>
       </c>
@@ -20178,7 +20271,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="271" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>12</v>
       </c>
@@ -20237,7 +20330,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="272" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>13</v>
       </c>
@@ -20296,7 +20389,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="273" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>101</v>
       </c>
@@ -20355,7 +20448,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="274" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>102</v>
       </c>
@@ -20414,7 +20507,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="275" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>1</v>
       </c>
@@ -20509,7 +20602,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="276" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>2</v>
       </c>
@@ -20604,7 +20697,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="277" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>3</v>
       </c>
@@ -20615,7 +20708,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="278" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>4</v>
       </c>
@@ -20626,7 +20719,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="279" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>5</v>
       </c>
@@ -20721,7 +20814,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>6</v>
       </c>
@@ -20810,7 +20903,7 @@
         <v>3.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>7</v>
       </c>
@@ -20890,7 +20983,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>8</v>
       </c>
@@ -20970,7 +21063,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>9</v>
       </c>
@@ -21130,7 +21223,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="285" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>11</v>
       </c>
@@ -21210,7 +21303,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="286" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>12</v>
       </c>
@@ -21290,7 +21383,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="287" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>13</v>
       </c>
@@ -21370,7 +21463,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="288" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>101</v>
       </c>
@@ -21462,7 +21555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>102</v>
       </c>
@@ -21554,7 +21647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>103</v>
       </c>
@@ -21640,7 +21733,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="291" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>201</v>
       </c>
@@ -21735,7 +21828,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="292" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>1</v>
       </c>
@@ -21794,7 +21887,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="293" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>2</v>
       </c>
@@ -21853,7 +21946,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="294" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>3</v>
       </c>
@@ -21864,7 +21957,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="295" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>4</v>
       </c>
@@ -21875,7 +21968,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="296" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>5</v>
       </c>
@@ -21934,7 +22027,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="297" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>6</v>
       </c>
@@ -21987,7 +22080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>7</v>
       </c>
@@ -22046,7 +22139,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="299" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>8</v>
       </c>
@@ -22105,7 +22198,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="300" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>9</v>
       </c>
@@ -22164,7 +22257,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="301" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>10</v>
       </c>
@@ -22222,8 +22315,11 @@
       <c r="AE301" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="302" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF301" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="302" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>11</v>
       </c>
@@ -22282,7 +22378,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="303" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>12</v>
       </c>
@@ -22341,7 +22437,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="304" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>13</v>
       </c>
@@ -22400,7 +22496,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="305" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>101</v>
       </c>
@@ -22492,7 +22588,7 @@
         <v>8.8400000000000006E-3</v>
       </c>
     </row>
-    <row r="306" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>102</v>
       </c>
@@ -22548,7 +22644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>103</v>
       </c>
@@ -22607,7 +22703,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="308" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>1</v>
       </c>
@@ -22702,7 +22798,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="309" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>2</v>
       </c>
@@ -22797,7 +22893,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="310" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>3</v>
       </c>
@@ -22808,7 +22904,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="311" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>4</v>
       </c>
@@ -22819,7 +22915,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="312" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>5</v>
       </c>
@@ -22914,7 +23010,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="313" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>6</v>
       </c>
@@ -23009,7 +23105,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="314" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>7</v>
       </c>
@@ -23104,7 +23200,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="315" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>8</v>
       </c>
@@ -23199,7 +23295,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="316" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>9</v>
       </c>
@@ -23294,7 +23390,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="317" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>10</v>
       </c>
@@ -23388,8 +23484,11 @@
       <c r="AE317" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="318" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF317" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="318" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>11</v>
       </c>
@@ -23484,7 +23583,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="319" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>12</v>
       </c>
@@ -23579,7 +23678,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="320" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>13</v>
       </c>
@@ -23674,7 +23773,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="321" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>101</v>
       </c>
@@ -23766,7 +23865,7 @@
         <v>4.4200000000000003E-3</v>
       </c>
     </row>
-    <row r="322" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>102</v>
       </c>
@@ -23858,7 +23957,7 @@
         <v>4.9300000000000004E-3</v>
       </c>
     </row>
-    <row r="323" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>103</v>
       </c>
@@ -23950,7 +24049,7 @@
         <v>4.4799999999999996E-3</v>
       </c>
     </row>
-    <row r="324" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>1</v>
       </c>
@@ -24045,7 +24144,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="325" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>2</v>
       </c>
@@ -24140,7 +24239,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="326" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>3</v>
       </c>
@@ -24235,7 +24334,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="327" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>4</v>
       </c>
@@ -24330,7 +24429,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="328" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>5</v>
       </c>
@@ -24425,7 +24524,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="329" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>6</v>
       </c>
@@ -24514,7 +24613,7 @@
         <v>1.068E-2</v>
       </c>
     </row>
-    <row r="330" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>7</v>
       </c>
@@ -24609,7 +24708,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="331" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>8</v>
       </c>
@@ -24704,7 +24803,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="332" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>9</v>
       </c>
@@ -24799,7 +24898,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="333" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>10</v>
       </c>
@@ -24893,8 +24992,11 @@
       <c r="AE333" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="334" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF333" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="334" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>11</v>
       </c>
@@ -24989,7 +25091,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="335" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>12</v>
       </c>
@@ -25084,7 +25186,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="336" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>13</v>
       </c>
@@ -25179,7 +25281,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="337" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>101</v>
       </c>
@@ -25274,7 +25376,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="338" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>102</v>
       </c>
@@ -25369,7 +25471,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="339" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>103</v>
       </c>
@@ -25464,7 +25566,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="340" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>1</v>
       </c>
@@ -25472,7 +25574,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="341" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>2</v>
       </c>
@@ -25480,7 +25582,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="342" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>3</v>
       </c>
@@ -25575,7 +25677,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="343" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>4</v>
       </c>
@@ -25583,7 +25685,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="344" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>5</v>
       </c>
@@ -25591,7 +25693,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="345" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>6</v>
       </c>
@@ -25599,7 +25701,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="346" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>7</v>
       </c>
@@ -25607,7 +25709,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="347" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>8</v>
       </c>
@@ -25615,7 +25717,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="348" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>9</v>
       </c>
@@ -25631,7 +25733,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="350" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>11</v>
       </c>
@@ -25639,7 +25741,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="351" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>12</v>
       </c>
@@ -25647,7 +25749,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="352" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>13</v>
       </c>
@@ -25655,7 +25757,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="353" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>301</v>
       </c>
@@ -25735,7 +25837,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="354" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>302</v>
       </c>
@@ -25830,7 +25932,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="355" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>1</v>
       </c>
@@ -25925,7 +26027,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="356" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>2</v>
       </c>
@@ -26020,7 +26122,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="357" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>3</v>
       </c>
@@ -26115,7 +26217,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="358" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>4</v>
       </c>
@@ -26210,7 +26312,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="359" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>5</v>
       </c>
@@ -26305,7 +26407,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="360" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>6</v>
       </c>
@@ -26364,7 +26466,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="361" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>7</v>
       </c>
@@ -26459,7 +26561,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="362" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>8</v>
       </c>
@@ -26554,7 +26656,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="363" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>9</v>
       </c>
@@ -26649,7 +26751,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="364" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>10</v>
       </c>
@@ -26743,8 +26845,11 @@
       <c r="AE364" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="365" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF364" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="365" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>11</v>
       </c>
@@ -26839,7 +26944,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="366" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>12</v>
       </c>
@@ -26934,7 +27039,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="367" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>13</v>
       </c>
@@ -27029,7 +27134,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="368" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>101</v>
       </c>
@@ -27124,7 +27229,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="369" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>102</v>
       </c>
@@ -27219,7 +27324,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="370" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>103</v>
       </c>
@@ -27314,7 +27419,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="371" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>110</v>
       </c>
@@ -27400,7 +27505,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="372" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>110</v>
       </c>
@@ -27486,7 +27591,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="373" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>111</v>
       </c>
@@ -27557,7 +27662,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="374" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>302</v>
       </c>
@@ -27646,7 +27751,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="375" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>1</v>
       </c>
@@ -27654,7 +27759,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="376" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>2</v>
       </c>
@@ -27662,7 +27767,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="377" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>3</v>
       </c>
@@ -27754,7 +27859,7 @@
         <v>8.9700000000000005E-3</v>
       </c>
     </row>
-    <row r="378" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>4</v>
       </c>
@@ -27762,7 +27867,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="379" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>5</v>
       </c>
@@ -27770,7 +27875,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="380" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>6</v>
       </c>
@@ -27778,7 +27883,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="381" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>7</v>
       </c>
@@ -27786,7 +27891,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="382" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>8</v>
       </c>
@@ -27794,7 +27899,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="383" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>9</v>
       </c>
@@ -27810,7 +27915,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="385" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>11</v>
       </c>
@@ -27818,7 +27923,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="386" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>12</v>
       </c>
@@ -27826,7 +27931,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="387" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>13</v>
       </c>
@@ -27834,7 +27939,7 @@
         <v>44266</v>
       </c>
     </row>
-    <row r="388" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>302</v>
       </c>
@@ -27929,7 +28034,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="389" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>1</v>
       </c>
@@ -28024,7 +28129,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="390" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>2</v>
       </c>
@@ -28119,7 +28224,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="391" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>3</v>
       </c>
@@ -28214,7 +28319,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="392" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>4</v>
       </c>
@@ -28309,7 +28414,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="393" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>5</v>
       </c>
@@ -28404,7 +28509,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="394" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>6</v>
       </c>
@@ -28496,7 +28601,7 @@
         <v>4.7699999999999999E-3</v>
       </c>
     </row>
-    <row r="395" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>7</v>
       </c>
@@ -28591,7 +28696,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="396" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>8</v>
       </c>
@@ -28686,7 +28791,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="397" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>9</v>
       </c>
@@ -28781,7 +28886,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="398" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>10</v>
       </c>
@@ -28875,8 +28980,11 @@
       <c r="AE398" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="399" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF398" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="399" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>11</v>
       </c>
@@ -28971,7 +29079,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="400" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>12</v>
       </c>
@@ -29066,7 +29174,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="401" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>13</v>
       </c>
@@ -29161,7 +29269,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="402" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>101</v>
       </c>
@@ -29220,7 +29328,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="403" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>102</v>
       </c>
@@ -29315,7 +29423,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="404" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>103</v>
       </c>
@@ -29410,7 +29518,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="405" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>201</v>
       </c>
@@ -29505,7 +29613,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="406" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>1</v>
       </c>
@@ -29600,7 +29708,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="407" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>2</v>
       </c>
@@ -29695,7 +29803,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="408" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>3</v>
       </c>
@@ -29790,7 +29898,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="409" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>4</v>
       </c>
@@ -29885,7 +29993,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="410" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>5</v>
       </c>
@@ -29980,7 +30088,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="411" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>6</v>
       </c>
@@ -30075,7 +30183,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="412" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>7</v>
       </c>
@@ -30170,7 +30278,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="413" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>8</v>
       </c>
@@ -30265,7 +30373,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="414" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>9</v>
       </c>
@@ -30360,7 +30468,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="415" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>10</v>
       </c>
@@ -30454,8 +30562,11 @@
       <c r="AE415" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="416" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF415" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="416" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>11</v>
       </c>
@@ -30550,7 +30661,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="417" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>12</v>
       </c>
@@ -30645,7 +30756,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="418" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>13</v>
       </c>
@@ -30740,7 +30851,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="419" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>101</v>
       </c>
@@ -30835,7 +30946,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="420" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>102</v>
       </c>
@@ -30930,7 +31041,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="421" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>103</v>
       </c>
@@ -31025,7 +31136,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="422" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>201</v>
       </c>
@@ -31120,7 +31231,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="423" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>202</v>
       </c>
@@ -31215,7 +31326,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="424" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>203</v>
       </c>
@@ -31310,7 +31421,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="425" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>204</v>
       </c>
@@ -31405,7 +31516,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="426" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>1</v>
       </c>
@@ -31500,7 +31611,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="427" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>2</v>
       </c>
@@ -31595,7 +31706,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="428" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>3</v>
       </c>
@@ -31609,7 +31720,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="429" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>4</v>
       </c>
@@ -31704,7 +31815,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="430" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>5</v>
       </c>
@@ -31799,7 +31910,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="431" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>6</v>
       </c>
@@ -31891,7 +32002,7 @@
         <v>1.9550000000000001E-2</v>
       </c>
     </row>
-    <row r="432" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>7</v>
       </c>
@@ -31986,7 +32097,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="433" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>8</v>
       </c>
@@ -32081,7 +32192,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="434" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>9</v>
       </c>
@@ -32176,7 +32287,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="435" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>10</v>
       </c>
@@ -32270,8 +32381,11 @@
       <c r="AE435" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="436" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF435" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="436" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>11</v>
       </c>
@@ -32366,7 +32480,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="437" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>12</v>
       </c>
@@ -32461,7 +32575,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="438" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>13</v>
       </c>
@@ -32556,7 +32670,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="439" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>101</v>
       </c>
@@ -32651,7 +32765,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="440" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>102</v>
       </c>
@@ -32743,7 +32857,7 @@
         <v>4.0899999999999999E-3</v>
       </c>
     </row>
-    <row r="441" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>103</v>
       </c>
@@ -32838,7 +32952,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="442" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>201</v>
       </c>
@@ -32933,7 +33047,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="443" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>204</v>
       </c>
@@ -33028,7 +33142,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="444" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>207</v>
       </c>
@@ -33120,7 +33234,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="445" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>1</v>
       </c>
@@ -33215,7 +33329,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="446" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>2</v>
       </c>
@@ -33310,7 +33424,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="447" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>3</v>
       </c>
@@ -33321,7 +33435,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="448" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>4</v>
       </c>
@@ -33416,7 +33530,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="449" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>5</v>
       </c>
@@ -33511,7 +33625,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="450" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>6</v>
       </c>
@@ -33522,7 +33636,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="451" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>7</v>
       </c>
@@ -33617,7 +33731,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="452" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>8</v>
       </c>
@@ -33712,7 +33826,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="453" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>9</v>
       </c>
@@ -33807,7 +33921,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="454" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>10</v>
       </c>
@@ -33901,8 +34015,11 @@
       <c r="AE454" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="455" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF454" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="455" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>11</v>
       </c>
@@ -33997,7 +34114,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="456" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>12</v>
       </c>
@@ -34092,7 +34209,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="457" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>13</v>
       </c>
@@ -34187,7 +34304,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="458" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>101</v>
       </c>
@@ -34282,7 +34399,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="459" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>102</v>
       </c>
@@ -34377,7 +34494,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="460" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>103</v>
       </c>
@@ -34469,7 +34586,7 @@
         <v>4.1099999999999999E-3</v>
       </c>
     </row>
-    <row r="461" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>201</v>
       </c>
@@ -34564,7 +34681,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="462" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>1</v>
       </c>
@@ -34659,7 +34776,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="463" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>2</v>
       </c>
@@ -34754,7 +34871,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="464" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>3</v>
       </c>
@@ -34765,7 +34882,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="465" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>4</v>
       </c>
@@ -34860,7 +34977,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="466" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>5</v>
       </c>
@@ -34955,7 +35072,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="467" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>6</v>
       </c>
@@ -34966,7 +35083,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="468" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>7</v>
       </c>
@@ -35061,7 +35178,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="469" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>8</v>
       </c>
@@ -35156,7 +35273,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="470" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>9</v>
       </c>
@@ -35251,7 +35368,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="471" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>10</v>
       </c>
@@ -35345,8 +35462,11 @@
       <c r="AE471" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="472" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF471" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="472" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>11</v>
       </c>
@@ -35441,7 +35561,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="473" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>12</v>
       </c>
@@ -35536,7 +35656,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="474" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>13</v>
       </c>
@@ -35631,7 +35751,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="475" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>101</v>
       </c>
@@ -35726,7 +35846,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="476" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>102</v>
       </c>
@@ -35821,7 +35941,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="477" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>103</v>
       </c>
@@ -35916,7 +36036,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="478" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>201</v>
       </c>
@@ -36011,7 +36131,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="479" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>1</v>
       </c>
@@ -36106,7 +36226,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="480" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>2</v>
       </c>
@@ -36201,7 +36321,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="481" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>3</v>
       </c>
@@ -36212,7 +36332,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="482" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>4</v>
       </c>
@@ -36307,7 +36427,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="483" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>5</v>
       </c>
@@ -36318,7 +36438,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="484" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>6</v>
       </c>
@@ -36329,7 +36449,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="485" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>7</v>
       </c>
@@ -36424,7 +36544,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="486" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>8</v>
       </c>
@@ -36519,7 +36639,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="487" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>9</v>
       </c>
@@ -36614,7 +36734,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="488" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>10</v>
       </c>
@@ -36708,8 +36828,11 @@
       <c r="AE488" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="489" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF488" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="489" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>11</v>
       </c>
@@ -36804,7 +36927,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="490" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>12</v>
       </c>
@@ -36899,7 +37022,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="491" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>13</v>
       </c>
@@ -36994,7 +37117,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="492" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>101</v>
       </c>
@@ -37086,7 +37209,7 @@
         <v>2.8500000000000001E-3</v>
       </c>
     </row>
-    <row r="493" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>102</v>
       </c>
@@ -37178,7 +37301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>103</v>
       </c>
@@ -37273,7 +37396,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="495" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>201</v>
       </c>
@@ -37332,7 +37455,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="496" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>1</v>
       </c>
@@ -37412,7 +37535,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="497" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>2</v>
       </c>
@@ -37492,7 +37615,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="498" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>3</v>
       </c>
@@ -37503,7 +37626,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="499" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>4</v>
       </c>
@@ -37583,7 +37706,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="500" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>5</v>
       </c>
@@ -37594,7 +37717,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="501" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>6</v>
       </c>
@@ -37605,7 +37728,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="502" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>7</v>
       </c>
@@ -37685,7 +37808,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="503" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>8</v>
       </c>
@@ -37765,7 +37888,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="504" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>9</v>
       </c>
@@ -37845,7 +37968,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="505" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>10</v>
       </c>
@@ -37924,8 +38047,11 @@
       <c r="AE505" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="506" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF505" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="506" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>11</v>
       </c>
@@ -38005,7 +38131,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="507" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>12</v>
       </c>
@@ -38085,7 +38211,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="508" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>13</v>
       </c>
@@ -38165,7 +38291,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="509" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>101</v>
       </c>
@@ -38245,7 +38371,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="510" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>102</v>
       </c>
@@ -38325,7 +38451,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="511" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>103</v>
       </c>
@@ -38405,7 +38531,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="512" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>201</v>
       </c>
@@ -38485,7 +38611,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="513" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>1</v>
       </c>
@@ -38565,7 +38691,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="514" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>2</v>
       </c>
@@ -38645,7 +38771,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="515" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>3</v>
       </c>
@@ -38725,7 +38851,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="516" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>4</v>
       </c>
@@ -38805,7 +38931,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="517" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>5</v>
       </c>
@@ -38885,7 +39011,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="518" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>6</v>
       </c>
@@ -38896,7 +39022,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="519" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>7</v>
       </c>
@@ -38976,7 +39102,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="520" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>8</v>
       </c>
@@ -39056,7 +39182,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="521" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>9</v>
       </c>
@@ -39136,7 +39262,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="522" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>10</v>
       </c>
@@ -39215,8 +39341,11 @@
       <c r="AE522" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="523" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF522" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="523" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>11</v>
       </c>
@@ -39296,7 +39425,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="524" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>12</v>
       </c>
@@ -39376,7 +39505,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="525" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>13</v>
       </c>
@@ -39456,7 +39585,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="526" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>101</v>
       </c>
@@ -39536,7 +39665,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="527" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>102</v>
       </c>
@@ -39616,7 +39745,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="528" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>103</v>
       </c>
@@ -39696,7 +39825,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="529" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>201</v>
       </c>
@@ -39707,7 +39836,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="530" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>301</v>
       </c>
@@ -39785,6 +39914,515 @@
       </c>
       <c r="AE530" t="s">
         <v>686</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AE530">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="10"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23" style="2" customWidth="1"/>
+    <col min="3" max="3" width="88" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43766</v>
+      </c>
+      <c r="C2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43781</v>
+      </c>
+      <c r="C3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43794</v>
+      </c>
+      <c r="C4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43809</v>
+      </c>
+      <c r="C5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43823</v>
+      </c>
+      <c r="C6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43838</v>
+      </c>
+      <c r="C7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43851</v>
+      </c>
+      <c r="C8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>43856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>43864</v>
+      </c>
+      <c r="C10" t="s">
+        <v>334</v>
+      </c>
+      <c r="D10" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43879</v>
+      </c>
+      <c r="C11" t="s">
+        <v>347</v>
+      </c>
+      <c r="D11" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>43893</v>
+      </c>
+      <c r="C12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>43908</v>
+      </c>
+      <c r="C13" t="s">
+        <v>372</v>
+      </c>
+      <c r="D13" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C14" t="s">
+        <v>385</v>
+      </c>
+      <c r="D14" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43957</v>
+      </c>
+      <c r="C15" t="s">
+        <v>398</v>
+      </c>
+      <c r="D15" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43970</v>
+      </c>
+      <c r="C16" t="s">
+        <v>411</v>
+      </c>
+      <c r="D16" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>43984</v>
+      </c>
+      <c r="C17" t="s">
+        <v>424</v>
+      </c>
+      <c r="D17" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>43998</v>
+      </c>
+      <c r="C18" t="s">
+        <v>439</v>
+      </c>
+      <c r="D18" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C19" t="s">
+        <v>454</v>
+      </c>
+      <c r="D19" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44027</v>
+      </c>
+      <c r="C20" t="s">
+        <v>469</v>
+      </c>
+      <c r="D20" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44040</v>
+      </c>
+      <c r="C21" t="s">
+        <v>484</v>
+      </c>
+      <c r="D21" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44055</v>
+      </c>
+      <c r="C22" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44075</v>
+      </c>
+      <c r="C23" t="s">
+        <v>509</v>
+      </c>
+      <c r="D23" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44097</v>
+      </c>
+      <c r="C24" t="s">
+        <v>519</v>
+      </c>
+      <c r="D24" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44140</v>
+      </c>
+      <c r="C25" t="s">
+        <v>531</v>
+      </c>
+      <c r="D25" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44242</v>
+      </c>
+      <c r="C27" t="s">
+        <v>549</v>
+      </c>
+      <c r="D27" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44279</v>
+      </c>
+      <c r="C29" t="s">
+        <v>568</v>
+      </c>
+      <c r="D29" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44313</v>
+      </c>
+      <c r="C30" t="s">
+        <v>585</v>
+      </c>
+      <c r="D30" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44342</v>
+      </c>
+      <c r="C31" t="s">
+        <v>604</v>
+      </c>
+      <c r="D31" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44375</v>
+      </c>
+      <c r="C32" t="s">
+        <v>620</v>
+      </c>
+      <c r="D32" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44405</v>
+      </c>
+      <c r="C33" t="s">
+        <v>634</v>
+      </c>
+      <c r="D33" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44433</v>
+      </c>
+      <c r="C34" t="s">
+        <v>649</v>
+      </c>
+      <c r="D34" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44468</v>
+      </c>
+      <c r="C35" t="s">
+        <v>663</v>
+      </c>
+      <c r="D35" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44556</v>
+      </c>
+      <c r="C36" t="s">
+        <v>678</v>
+      </c>
+      <c r="D36" t="s">
+        <v>689</v>
       </c>
     </row>
   </sheetData>
